--- a/planilha_vendas.xlsx
+++ b/planilha_vendas.xlsx
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>1º lote</t>
   </si>
@@ -241,7 +241,31 @@
     <t>Total Vendas Lotes</t>
   </si>
   <si>
-    <t>Todas as celular em amarelo podem ser alteradas</t>
+    <t>Todas as celulas em amarelo podem ser alteradas</t>
+  </si>
+  <si>
+    <t>Gastos / Despesas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestrantes </t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Unidade</t>
+  </si>
+  <si>
+    <t>Aluguel</t>
+  </si>
+  <si>
+    <t>Desp. Oper (lanches, materiais, outros)</t>
+  </si>
+  <si>
+    <t>Valor final - lucro</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -296,7 +320,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,8 +339,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -352,17 +382,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -386,9 +428,19 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -691,131 +743,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <f>B1-(SUM(B4,D4,F4,H4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="9" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="E4" s="1"/>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10">
+        <v>280</v>
+      </c>
+      <c r="D5" s="10">
+        <v>380</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="10">
+        <v>430</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="10">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11">
+        <f>B4*B5</f>
+        <v>1960</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11">
+        <f>D4*D5</f>
+        <v>380</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="11">
+        <f>F4*F5</f>
+        <v>430</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="11">
+        <f>H4*H5</f>
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="10">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="11">
-        <v>347</v>
-      </c>
-      <c r="D5" s="11">
-        <v>397</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="11">
-        <v>447</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="11">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="12">
-        <f>B4*B5</f>
-        <v>1388</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="12">
-        <f>D4*D5</f>
-        <v>1588</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="12">
-        <f>F4*F5</f>
-        <v>1341</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="12">
-        <f>H4*H5</f>
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="2">
         <f>SUM(B6,D6,F6,H6)</f>
-        <v>5958</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -826,10 +877,89 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15">
+        <v>400</v>
+      </c>
+      <c r="H12" s="18">
+        <f>B12*C12</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15">
+        <v>870</v>
+      </c>
+      <c r="H13" s="18">
+        <f>B13*C13</f>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
+        <f>(B6*30%)+(D6*30%)+(F6*30%)+(H6*30%)</f>
+        <v>1839</v>
+      </c>
+      <c r="H14" s="18">
+        <f>B14*C14</f>
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="19">
+        <f>H7-(SUM(H12:H14))</f>
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A16:G16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
